--- a/Inferential Statistics- Final Project(Udacity).xlsx
+++ b/Inferential Statistics- Final Project(Udacity).xlsx
@@ -13,24 +13,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t>Description</t>
+  </si>
   <si>
     <t>Introduction and Description:</t>
-  </si>
-  <si>
-    <t>Rleationship between age of patient at the time of operation and number of positive axillary nodes detected</t>
   </si>
   <si>
     <t>Age of patient at time of operation</t>
   </si>
   <si>
-    <t>Importance of analyzing and understanding the results:</t>
+    <t>Specific Question</t>
   </si>
   <si>
-    <t>Relationship between age of patient at the time of operation and survival status post operation</t>
+    <t>Possible Lurking Variables</t>
   </si>
   <si>
-    <t>Change in survival status of patients with the year in which operation is performed</t>
+    <t>Hypothesis</t>
+  </si>
+  <si>
+    <t>Releationship between age of patient at the time of operation and number of positive axillary nodes detected</t>
+  </si>
+  <si>
+    <t>Can we say that a specific age group have chances of getting higher/lower number of positive axillary nodes detected? Is there any trend?</t>
+  </si>
+  <si>
+    <t>Think in detail later.</t>
+  </si>
+  <si>
+    <t>H0: There is no relationship between age group and the number of postive axillary nodes detected.</t>
+  </si>
+  <si>
+    <t>Importance of analyzing and understanding the results:</t>
   </si>
   <si>
     <t>Things to know:</t>
@@ -39,13 +54,7 @@
     <t>Patient's year of operation</t>
   </si>
   <si>
-    <t>Relationship between number of positive axillary nodes detected and survival status</t>
-  </si>
-  <si>
     <t>Number of positive axillary nodes detected</t>
-  </si>
-  <si>
-    <t>Survival status</t>
   </si>
   <si>
     <t>The dataset contains cases from a study that was conducted between
@@ -54,7 +63,7 @@
    cancer.</t>
   </si>
   <si>
-    <t>Relationship between age of patient at the time of operation and year of operation, to know if the patients are becoming more aware to get diagonsed at an earlier stage with time or may be to see if with time the disease is changing the age group to attack upon, if yes which direction</t>
+    <t>Survival status</t>
   </si>
   <si>
     <t>Analyzing the given dataset can help us answer some important questions like:</t>
@@ -63,7 +72,7 @@
     <t>Positive axillary nodes: A positive axillary lymph node is a lymph node in the area of the armpit (axilla) to which cancer has spread.</t>
   </si>
   <si>
-    <t>Change in number of postive axillary nodes detected with the year in which operation is performed, to know if the disease is becoming more or less severe with time.</t>
+    <t>Relationship between age of patient at the time of operation and survival status post operation</t>
   </si>
   <si>
     <t>Number of Instances: 306</t>
@@ -72,25 +81,13 @@
     <t>If there is a particular age which is more prone to the disease.</t>
   </si>
   <si>
-    <t>Pattern of age of pateint at the time of operation, to see the trend on which age the disease often affects</t>
-  </si>
-  <si>
     <t>Number of Attributes: 4 (including the class attribute)</t>
-  </si>
-  <si>
-    <t>Pattern of year of treatment, to see the trend</t>
   </si>
   <si>
     <t>Or are there high chances of having a positive treatment if operated at an earlier age.</t>
   </si>
   <si>
-    <t>Pattern of number of positive axillary detected at the time of operation, to see the trend</t>
-  </si>
-  <si>
     <t>Source: https://en.wikipedia.org/wiki/Positive_axillary_lymph_node</t>
-  </si>
-  <si>
-    <t>Question 2, 3 and 4 can be clubbed to work as multiple regression, to create a single equation</t>
   </si>
   <si>
     <t>Attribute Information:
@@ -115,6 +112,30 @@
   </si>
   <si>
     <t>Many questions like above can be answered by analyzing the given dataset, which can be very helpful to understand the behaviour and pattern between the disease and the concerned patients. Having these answers the doctors/government can proceed in a way to tackle the situation more effectively.</t>
+  </si>
+  <si>
+    <t>Change in survival status of patients with the year in which operation is performed</t>
+  </si>
+  <si>
+    <t>Relationship between number of positive axillary nodes detected and survival status</t>
+  </si>
+  <si>
+    <t>Relationship between age of patient at the time of operation and year of operation, to know if the patients are becoming more aware to get diagonsed at an earlier stage with time or may be to see if with time the disease is changing the age group to attack upon, if yes which direction</t>
+  </si>
+  <si>
+    <t>Change in number of postive axillary nodes detected with the year in which operation is performed, to know if the disease is becoming more or less severe with time.</t>
+  </si>
+  <si>
+    <t>Pattern of age of pateint at the time of operation, to see the trend on which age the disease often affects</t>
+  </si>
+  <si>
+    <t>Pattern of year of treatment, to see the trend</t>
+  </si>
+  <si>
+    <t>Pattern of number of positive axillary detected at the time of operation, to see the trend</t>
+  </si>
+  <si>
+    <t>Question 2, 3 and 4 can be clubbed to work as multiple regression, to create a single equation</t>
   </si>
 </sst>
 </file>
@@ -151,12 +172,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
@@ -198,77 +222,77 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="3"/>
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -283,4300 +307,4300 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>30.0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>64.0</v>
       </c>
-      <c r="C2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>30.0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>62.0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>3.0</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>30.0</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>65.0</v>
       </c>
-      <c r="C4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>31.0</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>59.0</v>
       </c>
-      <c r="C5" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>31.0</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>65.0</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>4.0</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>33.0</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>58.0</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>10.0</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>33.0</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>60.0</v>
       </c>
-      <c r="C8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>34.0</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>59.0</v>
       </c>
-      <c r="C9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D9" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>34.0</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>66.0</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>9.0</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>34.0</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>58.0</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>30.0</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>34.0</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>60.0</v>
       </c>
-      <c r="C12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>34.0</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>61.0</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>10.0</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>34.0</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>67.0</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>7.0</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>34.0</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>60.0</v>
       </c>
-      <c r="C15" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="C15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D15" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>35.0</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>64.0</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>13.0</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>35.0</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>63.0</v>
       </c>
-      <c r="C17" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="C17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>36.0</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>60.0</v>
       </c>
-      <c r="C18" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="C18" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D18" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>36.0</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>69.0</v>
       </c>
-      <c r="C19" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D19" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>37.0</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>60.0</v>
       </c>
-      <c r="C20" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="C20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>37.0</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>63.0</v>
       </c>
-      <c r="C21" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="C21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D21" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>37.0</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>58.0</v>
       </c>
-      <c r="C22" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="C22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D22" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>37.0</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>59.0</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="3">
         <v>6.0</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>37.0</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <v>60.0</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="3">
         <v>15.0</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>37.0</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>63.0</v>
       </c>
-      <c r="C25" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="C25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D25" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>38.0</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <v>69.0</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="3">
         <v>21.0</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>38.0</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <v>59.0</v>
       </c>
-      <c r="C27" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="C27" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D27" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>38.0</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="3">
         <v>60.0</v>
       </c>
-      <c r="C28" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="C28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D28" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>38.0</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="3">
         <v>60.0</v>
       </c>
-      <c r="C29" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="C29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D29" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>38.0</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="3">
         <v>62.0</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="3">
         <v>3.0</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>38.0</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="3">
         <v>64.0</v>
       </c>
-      <c r="C31" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="C31" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D31" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>38.0</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="3">
         <v>66.0</v>
       </c>
-      <c r="C32" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="C32" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D32" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>38.0</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="3">
         <v>66.0</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="3">
         <v>11.0</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>38.0</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="3">
         <v>60.0</v>
       </c>
-      <c r="C34" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="C34" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D34" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>38.0</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="3">
         <v>67.0</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="3">
         <v>5.0</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>39.0</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="3">
         <v>66.0</v>
       </c>
-      <c r="C36" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="C36" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D36" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>39.0</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="3">
         <v>63.0</v>
       </c>
-      <c r="C37" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D37" s="2">
+      <c r="C37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D37" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>39.0</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="3">
         <v>67.0</v>
       </c>
-      <c r="C38" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D38" s="2">
+      <c r="C38" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D38" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>39.0</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="3">
         <v>58.0</v>
       </c>
-      <c r="C39" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D39" s="2">
+      <c r="C39" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D39" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>39.0</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="3">
         <v>59.0</v>
       </c>
-      <c r="C40" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D40" s="2">
+      <c r="C40" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D40" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>39.0</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="3">
         <v>63.0</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="3">
         <v>4.0</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>40.0</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="3">
         <v>58.0</v>
       </c>
-      <c r="C42" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D42" s="2">
+      <c r="C42" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D42" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2">
+      <c r="A43" s="3">
         <v>40.0</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="3">
         <v>58.0</v>
       </c>
-      <c r="C43" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D43" s="2">
+      <c r="C43" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D43" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>40.0</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="3">
         <v>65.0</v>
       </c>
-      <c r="C44" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D44" s="2">
+      <c r="C44" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D44" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <v>41.0</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="3">
         <v>60.0</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="3">
         <v>23.0</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>41.0</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="3">
         <v>64.0</v>
       </c>
-      <c r="C46" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D46" s="2">
+      <c r="C46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D46" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2">
+      <c r="A47" s="3">
         <v>41.0</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="3">
         <v>67.0</v>
       </c>
-      <c r="C47" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D47" s="2">
+      <c r="C47" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D47" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>41.0</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="3">
         <v>58.0</v>
       </c>
-      <c r="C48" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D48" s="2">
+      <c r="C48" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D48" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2">
+      <c r="A49" s="3">
         <v>41.0</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="3">
         <v>59.0</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="3">
         <v>8.0</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2">
+      <c r="A50" s="3">
         <v>41.0</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="3">
         <v>59.0</v>
       </c>
-      <c r="C50" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D50" s="2">
+      <c r="C50" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D50" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2">
+      <c r="A51" s="3">
         <v>41.0</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="3">
         <v>64.0</v>
       </c>
-      <c r="C51" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D51" s="2">
+      <c r="C51" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D51" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2">
+      <c r="A52" s="3">
         <v>41.0</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="3">
         <v>69.0</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="3">
         <v>8.0</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2">
+      <c r="A53" s="3">
         <v>41.0</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="3">
         <v>65.0</v>
       </c>
-      <c r="C53" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D53" s="2">
+      <c r="C53" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D53" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2">
+      <c r="A54" s="3">
         <v>41.0</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="3">
         <v>65.0</v>
       </c>
-      <c r="C54" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D54" s="2">
+      <c r="C54" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D54" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2">
+      <c r="A55" s="3">
         <v>42.0</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="3">
         <v>69.0</v>
       </c>
-      <c r="C55" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D55" s="2">
+      <c r="C55" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D55" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2">
+      <c r="A56" s="3">
         <v>42.0</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="3">
         <v>59.0</v>
       </c>
-      <c r="C56" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D56" s="2">
+      <c r="C56" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D56" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2">
+      <c r="A57" s="3">
         <v>42.0</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="3">
         <v>58.0</v>
       </c>
-      <c r="C57" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D57" s="2">
+      <c r="C57" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D57" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2">
+      <c r="A58" s="3">
         <v>42.0</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="3">
         <v>60.0</v>
       </c>
-      <c r="C58" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D58" s="2">
+      <c r="C58" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D58" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2">
+      <c r="A59" s="3">
         <v>42.0</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="3">
         <v>59.0</v>
       </c>
-      <c r="C59" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D59" s="2">
+      <c r="C59" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D59" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2">
+      <c r="A60" s="3">
         <v>42.0</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="3">
         <v>61.0</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="3">
         <v>4.0</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2">
+      <c r="A61" s="3">
         <v>42.0</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="3">
         <v>62.0</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="3">
         <v>20.0</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2">
+      <c r="A62" s="3">
         <v>42.0</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="3">
         <v>65.0</v>
       </c>
-      <c r="C62" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D62" s="2">
+      <c r="C62" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D62" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2">
+      <c r="A63" s="3">
         <v>42.0</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="3">
         <v>63.0</v>
       </c>
-      <c r="C63" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D63" s="2">
+      <c r="C63" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D63" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2">
+      <c r="A64" s="3">
         <v>43.0</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="3">
         <v>58.0</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="3">
         <v>52.0</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2">
+      <c r="A65" s="3">
         <v>43.0</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="3">
         <v>59.0</v>
       </c>
-      <c r="C65" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D65" s="2">
+      <c r="C65" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D65" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2">
+      <c r="A66" s="3">
         <v>43.0</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="3">
         <v>64.0</v>
       </c>
-      <c r="C66" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D66" s="2">
+      <c r="C66" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D66" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2">
+      <c r="A67" s="3">
         <v>43.0</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="3">
         <v>64.0</v>
       </c>
-      <c r="C67" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D67" s="2">
+      <c r="C67" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D67" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2">
+      <c r="A68" s="3">
         <v>43.0</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="3">
         <v>63.0</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="3">
         <v>14.0</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2">
+      <c r="A69" s="3">
         <v>43.0</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="3">
         <v>64.0</v>
       </c>
-      <c r="C69" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D69" s="2">
+      <c r="C69" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D69" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2">
+      <c r="A70" s="3">
         <v>43.0</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="3">
         <v>64.0</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="3">
         <v>3.0</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2">
+      <c r="A71" s="3">
         <v>43.0</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="3">
         <v>60.0</v>
       </c>
-      <c r="C71" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D71" s="2">
+      <c r="C71" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D71" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2">
+      <c r="A72" s="3">
         <v>43.0</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="3">
         <v>63.0</v>
       </c>
-      <c r="C72" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D72" s="2">
+      <c r="C72" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D72" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2">
+      <c r="A73" s="3">
         <v>43.0</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="3">
         <v>65.0</v>
       </c>
-      <c r="C73" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D73" s="2">
+      <c r="C73" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D73" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2">
+      <c r="A74" s="3">
         <v>43.0</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="3">
         <v>66.0</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="3">
         <v>4.0</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2">
+      <c r="A75" s="3">
         <v>44.0</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="3">
         <v>64.0</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="3">
         <v>6.0</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2">
+      <c r="A76" s="3">
         <v>44.0</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="3">
         <v>58.0</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="3">
         <v>9.0</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2">
+      <c r="A77" s="3">
         <v>44.0</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="3">
         <v>63.0</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="3">
         <v>19.0</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2">
+      <c r="A78" s="3">
         <v>44.0</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="3">
         <v>61.0</v>
       </c>
-      <c r="C78" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D78" s="2">
+      <c r="C78" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D78" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2">
+      <c r="A79" s="3">
         <v>44.0</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="3">
         <v>63.0</v>
       </c>
-      <c r="C79" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D79" s="2">
+      <c r="C79" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D79" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2">
+      <c r="A80" s="3">
         <v>44.0</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="3">
         <v>61.0</v>
       </c>
-      <c r="C80" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D80" s="2">
+      <c r="C80" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D80" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2">
+      <c r="A81" s="3">
         <v>44.0</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="3">
         <v>67.0</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="3">
         <v>16.0</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2">
+      <c r="A82" s="3">
         <v>45.0</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="3">
         <v>65.0</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="3">
         <v>6.0</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2">
+      <c r="A83" s="3">
         <v>45.0</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="3">
         <v>66.0</v>
       </c>
-      <c r="C83" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D83" s="2">
+      <c r="C83" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D83" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2">
+      <c r="A84" s="3">
         <v>45.0</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="3">
         <v>67.0</v>
       </c>
-      <c r="C84" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D84" s="2">
+      <c r="C84" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D84" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2">
+      <c r="A85" s="3">
         <v>45.0</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="3">
         <v>60.0</v>
       </c>
-      <c r="C85" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D85" s="2">
+      <c r="C85" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D85" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2">
+      <c r="A86" s="3">
         <v>45.0</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="3">
         <v>67.0</v>
       </c>
-      <c r="C86" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D86" s="2">
+      <c r="C86" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D86" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2">
+      <c r="A87" s="3">
         <v>45.0</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="3">
         <v>59.0</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="3">
         <v>14.0</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2">
+      <c r="A88" s="3">
         <v>45.0</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="3">
         <v>64.0</v>
       </c>
-      <c r="C88" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D88" s="2">
+      <c r="C88" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D88" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2">
+      <c r="A89" s="3">
         <v>45.0</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="3">
         <v>68.0</v>
       </c>
-      <c r="C89" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D89" s="2">
+      <c r="C89" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D89" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2">
+      <c r="A90" s="3">
         <v>45.0</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="3">
         <v>67.0</v>
       </c>
-      <c r="C90" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D90" s="2">
+      <c r="C90" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D90" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2">
+      <c r="A91" s="3">
         <v>46.0</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="3">
         <v>58.0</v>
       </c>
-      <c r="C91" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D91" s="2">
+      <c r="C91" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D91" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2">
+      <c r="A92" s="3">
         <v>46.0</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="3">
         <v>69.0</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="3">
         <v>3.0</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2">
+      <c r="A93" s="3">
         <v>46.0</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="3">
         <v>62.0</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="3">
         <v>5.0</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2">
+      <c r="A94" s="3">
         <v>46.0</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="3">
         <v>65.0</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="3">
         <v>20.0</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2">
+      <c r="A95" s="3">
         <v>46.0</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="3">
         <v>62.0</v>
       </c>
-      <c r="C95" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D95" s="2">
+      <c r="C95" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D95" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2">
+      <c r="A96" s="3">
         <v>46.0</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="3">
         <v>58.0</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96" s="3">
         <v>3.0</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2">
+      <c r="A97" s="3">
         <v>46.0</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="3">
         <v>63.0</v>
       </c>
-      <c r="C97" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D97" s="2">
+      <c r="C97" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D97" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2">
+      <c r="A98" s="3">
         <v>47.0</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="3">
         <v>63.0</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="3">
         <v>23.0</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2">
+      <c r="A99" s="3">
         <v>47.0</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="3">
         <v>62.0</v>
       </c>
-      <c r="C99" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D99" s="2">
+      <c r="C99" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D99" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2">
+      <c r="A100" s="3">
         <v>47.0</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="3">
         <v>65.0</v>
       </c>
-      <c r="C100" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D100" s="2">
+      <c r="C100" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D100" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2">
+      <c r="A101" s="3">
         <v>47.0</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="3">
         <v>61.0</v>
       </c>
-      <c r="C101" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D101" s="2">
+      <c r="C101" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D101" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2">
+      <c r="A102" s="3">
         <v>47.0</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="3">
         <v>63.0</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="3">
         <v>6.0</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2">
+      <c r="A103" s="3">
         <v>47.0</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="3">
         <v>66.0</v>
       </c>
-      <c r="C103" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D103" s="2">
+      <c r="C103" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D103" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2">
+      <c r="A104" s="3">
         <v>47.0</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="3">
         <v>67.0</v>
       </c>
-      <c r="C104" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D104" s="2">
+      <c r="C104" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D104" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2">
+      <c r="A105" s="3">
         <v>47.0</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="3">
         <v>58.0</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105" s="3">
         <v>3.0</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2">
+      <c r="A106" s="3">
         <v>47.0</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="3">
         <v>60.0</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106" s="3">
         <v>4.0</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2">
+      <c r="A107" s="3">
         <v>47.0</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="3">
         <v>68.0</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="3">
         <v>4.0</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2">
+      <c r="A108" s="3">
         <v>47.0</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="3">
         <v>66.0</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="3">
         <v>12.0</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2">
+      <c r="A109" s="3">
         <v>48.0</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="3">
         <v>58.0</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109" s="3">
         <v>11.0</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2">
+      <c r="A110" s="3">
         <v>48.0</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="3">
         <v>58.0</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="3">
         <v>11.0</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2">
+      <c r="A111" s="3">
         <v>48.0</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="3">
         <v>67.0</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111" s="3">
         <v>7.0</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2">
+      <c r="A112" s="3">
         <v>48.0</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="3">
         <v>61.0</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112" s="3">
         <v>8.0</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2">
+      <c r="A113" s="3">
         <v>48.0</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="3">
         <v>62.0</v>
       </c>
-      <c r="C113" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D113" s="2">
+      <c r="C113" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D113" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2">
+      <c r="A114" s="3">
         <v>48.0</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="3">
         <v>64.0</v>
       </c>
-      <c r="C114" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D114" s="2">
+      <c r="C114" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D114" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2">
+      <c r="A115" s="3">
         <v>48.0</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="3">
         <v>66.0</v>
       </c>
-      <c r="C115" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D115" s="2">
+      <c r="C115" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D115" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2">
+      <c r="A116" s="3">
         <v>49.0</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="3">
         <v>63.0</v>
       </c>
-      <c r="C116" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D116" s="2">
+      <c r="C116" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D116" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2">
+      <c r="A117" s="3">
         <v>49.0</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="3">
         <v>64.0</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117" s="3">
         <v>10.0</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2">
+      <c r="A118" s="3">
         <v>49.0</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="3">
         <v>61.0</v>
       </c>
-      <c r="C118" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D118" s="2">
+      <c r="C118" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D118" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2">
+      <c r="A119" s="3">
         <v>49.0</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="3">
         <v>62.0</v>
       </c>
-      <c r="C119" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D119" s="2">
+      <c r="C119" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D119" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2">
+      <c r="A120" s="3">
         <v>49.0</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="3">
         <v>66.0</v>
       </c>
-      <c r="C120" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D120" s="2">
+      <c r="C120" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D120" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2">
+      <c r="A121" s="3">
         <v>49.0</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="3">
         <v>60.0</v>
       </c>
-      <c r="C121" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D121" s="2">
+      <c r="C121" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D121" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2">
+      <c r="A122" s="3">
         <v>49.0</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="3">
         <v>62.0</v>
       </c>
-      <c r="C122" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D122" s="2">
+      <c r="C122" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D122" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2">
+      <c r="A123" s="3">
         <v>49.0</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="3">
         <v>63.0</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123" s="3">
         <v>3.0</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D123" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2">
+      <c r="A124" s="3">
         <v>49.0</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="3">
         <v>61.0</v>
       </c>
-      <c r="C124" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D124" s="2">
+      <c r="C124" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D124" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2">
+      <c r="A125" s="3">
         <v>49.0</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="3">
         <v>67.0</v>
       </c>
-      <c r="C125" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D125" s="2">
+      <c r="C125" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D125" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2">
+      <c r="A126" s="3">
         <v>50.0</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="3">
         <v>63.0</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126" s="3">
         <v>13.0</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2">
+      <c r="A127" s="3">
         <v>50.0</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="3">
         <v>64.0</v>
       </c>
-      <c r="C127" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D127" s="2">
+      <c r="C127" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D127" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2">
+      <c r="A128" s="3">
         <v>50.0</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="3">
         <v>59.0</v>
       </c>
-      <c r="C128" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D128" s="2">
+      <c r="C128" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D128" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2">
+      <c r="A129" s="3">
         <v>50.0</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="3">
         <v>61.0</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129" s="3">
         <v>6.0</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2">
+      <c r="A130" s="3">
         <v>50.0</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="3">
         <v>61.0</v>
       </c>
-      <c r="C130" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D130" s="2">
+      <c r="C130" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D130" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2">
+      <c r="A131" s="3">
         <v>50.0</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="3">
         <v>63.0</v>
       </c>
-      <c r="C131" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D131" s="2">
+      <c r="C131" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D131" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2">
+      <c r="A132" s="3">
         <v>50.0</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="3">
         <v>58.0</v>
       </c>
-      <c r="C132" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D132" s="2">
+      <c r="C132" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D132" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2">
+      <c r="A133" s="3">
         <v>50.0</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="3">
         <v>59.0</v>
       </c>
-      <c r="C133" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D133" s="2">
+      <c r="C133" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D133" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2">
+      <c r="A134" s="3">
         <v>50.0</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="3">
         <v>61.0</v>
       </c>
-      <c r="C134" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D134" s="2">
+      <c r="C134" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D134" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2">
+      <c r="A135" s="3">
         <v>50.0</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="3">
         <v>64.0</v>
       </c>
-      <c r="C135" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D135" s="2">
+      <c r="C135" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D135" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2">
+      <c r="A136" s="3">
         <v>50.0</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="3">
         <v>65.0</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C136" s="3">
         <v>4.0</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D136" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2">
+      <c r="A137" s="3">
         <v>50.0</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="3">
         <v>66.0</v>
       </c>
-      <c r="C137" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D137" s="2">
+      <c r="C137" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D137" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="2">
+      <c r="A138" s="3">
         <v>51.0</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="3">
         <v>59.0</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C138" s="3">
         <v>13.0</v>
       </c>
-      <c r="D138" s="2">
+      <c r="D138" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2">
+      <c r="A139" s="3">
         <v>51.0</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="3">
         <v>59.0</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C139" s="3">
         <v>3.0</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D139" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2">
+      <c r="A140" s="3">
         <v>51.0</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="3">
         <v>64.0</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C140" s="3">
         <v>7.0</v>
       </c>
-      <c r="D140" s="2">
+      <c r="D140" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2">
+      <c r="A141" s="3">
         <v>51.0</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" s="3">
         <v>59.0</v>
       </c>
-      <c r="C141" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D141" s="2">
+      <c r="C141" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D141" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2">
+      <c r="A142" s="3">
         <v>51.0</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="3">
         <v>65.0</v>
       </c>
-      <c r="C142" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D142" s="2">
+      <c r="C142" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D142" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2">
+      <c r="A143" s="3">
         <v>51.0</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="3">
         <v>66.0</v>
       </c>
-      <c r="C143" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D143" s="2">
+      <c r="C143" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D143" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2">
+      <c r="A144" s="3">
         <v>52.0</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144" s="3">
         <v>69.0</v>
       </c>
-      <c r="C144" s="2">
+      <c r="C144" s="3">
         <v>3.0</v>
       </c>
-      <c r="D144" s="2">
+      <c r="D144" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2">
+      <c r="A145" s="3">
         <v>52.0</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" s="3">
         <v>59.0</v>
       </c>
-      <c r="C145" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D145" s="2">
+      <c r="C145" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D145" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2">
+      <c r="A146" s="3">
         <v>52.0</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="3">
         <v>62.0</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C146" s="3">
         <v>3.0</v>
       </c>
-      <c r="D146" s="2">
+      <c r="D146" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2">
+      <c r="A147" s="3">
         <v>52.0</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="3">
         <v>66.0</v>
       </c>
-      <c r="C147" s="2">
+      <c r="C147" s="3">
         <v>4.0</v>
       </c>
-      <c r="D147" s="2">
+      <c r="D147" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2">
+      <c r="A148" s="3">
         <v>52.0</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="3">
         <v>61.0</v>
       </c>
-      <c r="C148" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D148" s="2">
+      <c r="C148" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D148" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2">
+      <c r="A149" s="3">
         <v>52.0</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="3">
         <v>63.0</v>
       </c>
-      <c r="C149" s="2">
+      <c r="C149" s="3">
         <v>4.0</v>
       </c>
-      <c r="D149" s="2">
+      <c r="D149" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2">
+      <c r="A150" s="3">
         <v>52.0</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="3">
         <v>69.0</v>
       </c>
-      <c r="C150" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D150" s="2">
+      <c r="C150" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D150" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2">
+      <c r="A151" s="3">
         <v>52.0</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="3">
         <v>60.0</v>
       </c>
-      <c r="C151" s="2">
+      <c r="C151" s="3">
         <v>4.0</v>
       </c>
-      <c r="D151" s="2">
+      <c r="D151" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2">
+      <c r="A152" s="3">
         <v>52.0</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="3">
         <v>60.0</v>
       </c>
-      <c r="C152" s="2">
+      <c r="C152" s="3">
         <v>5.0</v>
       </c>
-      <c r="D152" s="2">
+      <c r="D152" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2">
+      <c r="A153" s="3">
         <v>52.0</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="3">
         <v>62.0</v>
       </c>
-      <c r="C153" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D153" s="2">
+      <c r="C153" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D153" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="2">
+      <c r="A154" s="3">
         <v>52.0</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="3">
         <v>62.0</v>
       </c>
-      <c r="C154" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D154" s="2">
+      <c r="C154" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D154" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="2">
+      <c r="A155" s="3">
         <v>52.0</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="3">
         <v>64.0</v>
       </c>
-      <c r="C155" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D155" s="2">
+      <c r="C155" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D155" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="2">
+      <c r="A156" s="3">
         <v>52.0</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="3">
         <v>65.0</v>
       </c>
-      <c r="C156" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D156" s="2">
+      <c r="C156" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D156" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="2">
+      <c r="A157" s="3">
         <v>52.0</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="3">
         <v>68.0</v>
       </c>
-      <c r="C157" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D157" s="2">
+      <c r="C157" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D157" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2">
+      <c r="A158" s="3">
         <v>53.0</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158" s="3">
         <v>58.0</v>
       </c>
-      <c r="C158" s="2">
+      <c r="C158" s="3">
         <v>4.0</v>
       </c>
-      <c r="D158" s="2">
+      <c r="D158" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2">
+      <c r="A159" s="3">
         <v>53.0</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" s="3">
         <v>65.0</v>
       </c>
-      <c r="C159" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D159" s="2">
+      <c r="C159" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D159" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2">
+      <c r="A160" s="3">
         <v>53.0</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="3">
         <v>59.0</v>
       </c>
-      <c r="C160" s="2">
+      <c r="C160" s="3">
         <v>3.0</v>
       </c>
-      <c r="D160" s="2">
+      <c r="D160" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2">
+      <c r="A161" s="3">
         <v>53.0</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" s="3">
         <v>60.0</v>
       </c>
-      <c r="C161" s="2">
+      <c r="C161" s="3">
         <v>9.0</v>
       </c>
-      <c r="D161" s="2">
+      <c r="D161" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2">
+      <c r="A162" s="3">
         <v>53.0</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162" s="3">
         <v>63.0</v>
       </c>
-      <c r="C162" s="2">
+      <c r="C162" s="3">
         <v>24.0</v>
       </c>
-      <c r="D162" s="2">
+      <c r="D162" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2">
+      <c r="A163" s="3">
         <v>53.0</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="3">
         <v>65.0</v>
       </c>
-      <c r="C163" s="2">
+      <c r="C163" s="3">
         <v>12.0</v>
       </c>
-      <c r="D163" s="2">
+      <c r="D163" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2">
+      <c r="A164" s="3">
         <v>53.0</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164" s="3">
         <v>58.0</v>
       </c>
-      <c r="C164" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D164" s="2">
+      <c r="C164" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D164" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2">
+      <c r="A165" s="3">
         <v>53.0</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165" s="3">
         <v>60.0</v>
       </c>
-      <c r="C165" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D165" s="2">
+      <c r="C165" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D165" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2">
+      <c r="A166" s="3">
         <v>53.0</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166" s="3">
         <v>60.0</v>
       </c>
-      <c r="C166" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D166" s="2">
+      <c r="C166" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D166" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="2">
+      <c r="A167" s="3">
         <v>53.0</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167" s="3">
         <v>61.0</v>
       </c>
-      <c r="C167" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D167" s="2">
+      <c r="C167" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D167" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="2">
+      <c r="A168" s="3">
         <v>53.0</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168" s="3">
         <v>63.0</v>
       </c>
-      <c r="C168" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D168" s="2">
+      <c r="C168" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D168" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="2">
+      <c r="A169" s="3">
         <v>54.0</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169" s="3">
         <v>60.0</v>
       </c>
-      <c r="C169" s="2">
+      <c r="C169" s="3">
         <v>11.0</v>
       </c>
-      <c r="D169" s="2">
+      <c r="D169" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="2">
+      <c r="A170" s="3">
         <v>54.0</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170" s="3">
         <v>65.0</v>
       </c>
-      <c r="C170" s="2">
+      <c r="C170" s="3">
         <v>23.0</v>
       </c>
-      <c r="D170" s="2">
+      <c r="D170" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2">
+      <c r="A171" s="3">
         <v>54.0</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B171" s="3">
         <v>65.0</v>
       </c>
-      <c r="C171" s="2">
+      <c r="C171" s="3">
         <v>5.0</v>
       </c>
-      <c r="D171" s="2">
+      <c r="D171" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2">
+      <c r="A172" s="3">
         <v>54.0</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172" s="3">
         <v>68.0</v>
       </c>
-      <c r="C172" s="2">
+      <c r="C172" s="3">
         <v>7.0</v>
       </c>
-      <c r="D172" s="2">
+      <c r="D172" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="2">
+      <c r="A173" s="3">
         <v>54.0</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173" s="3">
         <v>59.0</v>
       </c>
-      <c r="C173" s="2">
+      <c r="C173" s="3">
         <v>7.0</v>
       </c>
-      <c r="D173" s="2">
+      <c r="D173" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2">
+      <c r="A174" s="3">
         <v>54.0</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B174" s="3">
         <v>60.0</v>
       </c>
-      <c r="C174" s="2">
+      <c r="C174" s="3">
         <v>3.0</v>
       </c>
-      <c r="D174" s="2">
+      <c r="D174" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2">
+      <c r="A175" s="3">
         <v>54.0</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B175" s="3">
         <v>66.0</v>
       </c>
-      <c r="C175" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D175" s="2">
+      <c r="C175" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D175" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2">
+      <c r="A176" s="3">
         <v>54.0</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B176" s="3">
         <v>67.0</v>
       </c>
-      <c r="C176" s="2">
+      <c r="C176" s="3">
         <v>46.0</v>
       </c>
-      <c r="D176" s="2">
+      <c r="D176" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2">
+      <c r="A177" s="3">
         <v>54.0</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B177" s="3">
         <v>62.0</v>
       </c>
-      <c r="C177" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D177" s="2">
+      <c r="C177" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D177" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2">
+      <c r="A178" s="3">
         <v>54.0</v>
       </c>
-      <c r="B178" s="2">
+      <c r="B178" s="3">
         <v>69.0</v>
       </c>
-      <c r="C178" s="2">
+      <c r="C178" s="3">
         <v>7.0</v>
       </c>
-      <c r="D178" s="2">
+      <c r="D178" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2">
+      <c r="A179" s="3">
         <v>54.0</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B179" s="3">
         <v>63.0</v>
       </c>
-      <c r="C179" s="2">
+      <c r="C179" s="3">
         <v>19.0</v>
       </c>
-      <c r="D179" s="2">
+      <c r="D179" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2">
+      <c r="A180" s="3">
         <v>54.0</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B180" s="3">
         <v>58.0</v>
       </c>
-      <c r="C180" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D180" s="2">
+      <c r="C180" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D180" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2">
+      <c r="A181" s="3">
         <v>54.0</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B181" s="3">
         <v>62.0</v>
       </c>
-      <c r="C181" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D181" s="2">
+      <c r="C181" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D181" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2">
+      <c r="A182" s="3">
         <v>55.0</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182" s="3">
         <v>63.0</v>
       </c>
-      <c r="C182" s="2">
+      <c r="C182" s="3">
         <v>6.0</v>
       </c>
-      <c r="D182" s="2">
+      <c r="D182" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2">
+      <c r="A183" s="3">
         <v>55.0</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B183" s="3">
         <v>68.0</v>
       </c>
-      <c r="C183" s="2">
+      <c r="C183" s="3">
         <v>15.0</v>
       </c>
-      <c r="D183" s="2">
+      <c r="D183" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2">
+      <c r="A184" s="3">
         <v>55.0</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184" s="3">
         <v>58.0</v>
       </c>
-      <c r="C184" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D184" s="2">
+      <c r="C184" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D184" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2">
+      <c r="A185" s="3">
         <v>55.0</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B185" s="3">
         <v>58.0</v>
       </c>
-      <c r="C185" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D185" s="2">
+      <c r="C185" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D185" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2">
+      <c r="A186" s="3">
         <v>55.0</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B186" s="3">
         <v>58.0</v>
       </c>
-      <c r="C186" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D186" s="2">
+      <c r="C186" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D186" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="2">
+      <c r="A187" s="3">
         <v>55.0</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B187" s="3">
         <v>66.0</v>
       </c>
-      <c r="C187" s="2">
+      <c r="C187" s="3">
         <v>18.0</v>
       </c>
-      <c r="D187" s="2">
+      <c r="D187" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2">
+      <c r="A188" s="3">
         <v>55.0</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B188" s="3">
         <v>66.0</v>
       </c>
-      <c r="C188" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D188" s="2">
+      <c r="C188" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D188" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="2">
+      <c r="A189" s="3">
         <v>55.0</v>
       </c>
-      <c r="B189" s="2">
+      <c r="B189" s="3">
         <v>69.0</v>
       </c>
-      <c r="C189" s="2">
+      <c r="C189" s="3">
         <v>3.0</v>
       </c>
-      <c r="D189" s="2">
+      <c r="D189" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="2">
+      <c r="A190" s="3">
         <v>55.0</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B190" s="3">
         <v>69.0</v>
       </c>
-      <c r="C190" s="2">
+      <c r="C190" s="3">
         <v>22.0</v>
       </c>
-      <c r="D190" s="2">
+      <c r="D190" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="2">
+      <c r="A191" s="3">
         <v>55.0</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B191" s="3">
         <v>67.0</v>
       </c>
-      <c r="C191" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D191" s="2">
+      <c r="C191" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D191" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="2">
+      <c r="A192" s="3">
         <v>56.0</v>
       </c>
-      <c r="B192" s="2">
+      <c r="B192" s="3">
         <v>65.0</v>
       </c>
-      <c r="C192" s="2">
+      <c r="C192" s="3">
         <v>9.0</v>
       </c>
-      <c r="D192" s="2">
+      <c r="D192" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="2">
+      <c r="A193" s="3">
         <v>56.0</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B193" s="3">
         <v>66.0</v>
       </c>
-      <c r="C193" s="2">
+      <c r="C193" s="3">
         <v>3.0</v>
       </c>
-      <c r="D193" s="2">
+      <c r="D193" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="2">
+      <c r="A194" s="3">
         <v>56.0</v>
       </c>
-      <c r="B194" s="2">
+      <c r="B194" s="3">
         <v>60.0</v>
       </c>
-      <c r="C194" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D194" s="2">
+      <c r="C194" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D194" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="2">
+      <c r="A195" s="3">
         <v>56.0</v>
       </c>
-      <c r="B195" s="2">
+      <c r="B195" s="3">
         <v>66.0</v>
       </c>
-      <c r="C195" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D195" s="2">
+      <c r="C195" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D195" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="2">
+      <c r="A196" s="3">
         <v>56.0</v>
       </c>
-      <c r="B196" s="2">
+      <c r="B196" s="3">
         <v>66.0</v>
       </c>
-      <c r="C196" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D196" s="2">
+      <c r="C196" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D196" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2">
+      <c r="A197" s="3">
         <v>56.0</v>
       </c>
-      <c r="B197" s="2">
+      <c r="B197" s="3">
         <v>67.0</v>
       </c>
-      <c r="C197" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D197" s="2">
+      <c r="C197" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D197" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2">
+      <c r="A198" s="3">
         <v>56.0</v>
       </c>
-      <c r="B198" s="2">
+      <c r="B198" s="3">
         <v>60.0</v>
       </c>
-      <c r="C198" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D198" s="2">
+      <c r="C198" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D198" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2">
+      <c r="A199" s="3">
         <v>57.0</v>
       </c>
-      <c r="B199" s="2">
+      <c r="B199" s="3">
         <v>61.0</v>
       </c>
-      <c r="C199" s="2">
+      <c r="C199" s="3">
         <v>5.0</v>
       </c>
-      <c r="D199" s="2">
+      <c r="D199" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2">
+      <c r="A200" s="3">
         <v>57.0</v>
       </c>
-      <c r="B200" s="2">
+      <c r="B200" s="3">
         <v>62.0</v>
       </c>
-      <c r="C200" s="2">
+      <c r="C200" s="3">
         <v>14.0</v>
       </c>
-      <c r="D200" s="2">
+      <c r="D200" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2">
+      <c r="A201" s="3">
         <v>57.0</v>
       </c>
-      <c r="B201" s="2">
+      <c r="B201" s="3">
         <v>64.0</v>
       </c>
-      <c r="C201" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D201" s="2">
+      <c r="C201" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D201" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="2">
+      <c r="A202" s="3">
         <v>57.0</v>
       </c>
-      <c r="B202" s="2">
+      <c r="B202" s="3">
         <v>64.0</v>
       </c>
-      <c r="C202" s="2">
+      <c r="C202" s="3">
         <v>9.0</v>
       </c>
-      <c r="D202" s="2">
+      <c r="D202" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="2">
+      <c r="A203" s="3">
         <v>57.0</v>
       </c>
-      <c r="B203" s="2">
+      <c r="B203" s="3">
         <v>69.0</v>
       </c>
-      <c r="C203" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D203" s="2">
+      <c r="C203" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D203" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2">
+      <c r="A204" s="3">
         <v>57.0</v>
       </c>
-      <c r="B204" s="2">
+      <c r="B204" s="3">
         <v>61.0</v>
       </c>
-      <c r="C204" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D204" s="2">
+      <c r="C204" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D204" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2">
+      <c r="A205" s="3">
         <v>57.0</v>
       </c>
-      <c r="B205" s="2">
+      <c r="B205" s="3">
         <v>62.0</v>
       </c>
-      <c r="C205" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D205" s="2">
+      <c r="C205" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D205" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2">
+      <c r="A206" s="3">
         <v>57.0</v>
       </c>
-      <c r="B206" s="2">
+      <c r="B206" s="3">
         <v>63.0</v>
       </c>
-      <c r="C206" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D206" s="2">
+      <c r="C206" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D206" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2">
+      <c r="A207" s="3">
         <v>57.0</v>
       </c>
-      <c r="B207" s="2">
+      <c r="B207" s="3">
         <v>64.0</v>
       </c>
-      <c r="C207" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D207" s="2">
+      <c r="C207" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D207" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2">
+      <c r="A208" s="3">
         <v>57.0</v>
       </c>
-      <c r="B208" s="2">
+      <c r="B208" s="3">
         <v>64.0</v>
       </c>
-      <c r="C208" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D208" s="2">
+      <c r="C208" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D208" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="2">
+      <c r="A209" s="3">
         <v>57.0</v>
       </c>
-      <c r="B209" s="2">
+      <c r="B209" s="3">
         <v>67.0</v>
       </c>
-      <c r="C209" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D209" s="2">
+      <c r="C209" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D209" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2">
+      <c r="A210" s="3">
         <v>58.0</v>
       </c>
-      <c r="B210" s="2">
+      <c r="B210" s="3">
         <v>59.0</v>
       </c>
-      <c r="C210" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D210" s="2">
+      <c r="C210" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D210" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2">
+      <c r="A211" s="3">
         <v>58.0</v>
       </c>
-      <c r="B211" s="2">
+      <c r="B211" s="3">
         <v>60.0</v>
       </c>
-      <c r="C211" s="2">
+      <c r="C211" s="3">
         <v>3.0</v>
       </c>
-      <c r="D211" s="2">
+      <c r="D211" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2">
+      <c r="A212" s="3">
         <v>58.0</v>
       </c>
-      <c r="B212" s="2">
+      <c r="B212" s="3">
         <v>61.0</v>
       </c>
-      <c r="C212" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D212" s="2">
+      <c r="C212" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D212" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2">
+      <c r="A213" s="3">
         <v>58.0</v>
       </c>
-      <c r="B213" s="2">
+      <c r="B213" s="3">
         <v>67.0</v>
       </c>
-      <c r="C213" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D213" s="2">
+      <c r="C213" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D213" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2">
+      <c r="A214" s="3">
         <v>58.0</v>
       </c>
-      <c r="B214" s="2">
+      <c r="B214" s="3">
         <v>58.0</v>
       </c>
-      <c r="C214" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D214" s="2">
+      <c r="C214" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D214" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2">
+      <c r="A215" s="3">
         <v>58.0</v>
       </c>
-      <c r="B215" s="2">
+      <c r="B215" s="3">
         <v>58.0</v>
       </c>
-      <c r="C215" s="2">
+      <c r="C215" s="3">
         <v>3.0</v>
       </c>
-      <c r="D215" s="2">
+      <c r="D215" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2">
+      <c r="A216" s="3">
         <v>58.0</v>
       </c>
-      <c r="B216" s="2">
+      <c r="B216" s="3">
         <v>61.0</v>
       </c>
-      <c r="C216" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D216" s="2">
+      <c r="C216" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D216" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2">
+      <c r="A217" s="3">
         <v>59.0</v>
       </c>
-      <c r="B217" s="2">
+      <c r="B217" s="3">
         <v>62.0</v>
       </c>
-      <c r="C217" s="2">
+      <c r="C217" s="3">
         <v>35.0</v>
       </c>
-      <c r="D217" s="2">
+      <c r="D217" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2">
+      <c r="A218" s="3">
         <v>59.0</v>
       </c>
-      <c r="B218" s="2">
+      <c r="B218" s="3">
         <v>60.0</v>
       </c>
-      <c r="C218" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D218" s="2">
+      <c r="C218" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D218" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2">
+      <c r="A219" s="3">
         <v>59.0</v>
       </c>
-      <c r="B219" s="2">
+      <c r="B219" s="3">
         <v>63.0</v>
       </c>
-      <c r="C219" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D219" s="2">
+      <c r="C219" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D219" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2">
+      <c r="A220" s="3">
         <v>59.0</v>
       </c>
-      <c r="B220" s="2">
+      <c r="B220" s="3">
         <v>64.0</v>
       </c>
-      <c r="C220" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D220" s="2">
+      <c r="C220" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D220" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2">
+      <c r="A221" s="3">
         <v>59.0</v>
       </c>
-      <c r="B221" s="2">
+      <c r="B221" s="3">
         <v>64.0</v>
       </c>
-      <c r="C221" s="2">
+      <c r="C221" s="3">
         <v>4.0</v>
       </c>
-      <c r="D221" s="2">
+      <c r="D221" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2">
+      <c r="A222" s="3">
         <v>59.0</v>
       </c>
-      <c r="B222" s="2">
+      <c r="B222" s="3">
         <v>64.0</v>
       </c>
-      <c r="C222" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D222" s="2">
+      <c r="C222" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D222" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="2">
+      <c r="A223" s="3">
         <v>59.0</v>
       </c>
-      <c r="B223" s="2">
+      <c r="B223" s="3">
         <v>64.0</v>
       </c>
-      <c r="C223" s="2">
+      <c r="C223" s="3">
         <v>7.0</v>
       </c>
-      <c r="D223" s="2">
+      <c r="D223" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2">
+      <c r="A224" s="3">
         <v>59.0</v>
       </c>
-      <c r="B224" s="2">
+      <c r="B224" s="3">
         <v>67.0</v>
       </c>
-      <c r="C224" s="2">
+      <c r="C224" s="3">
         <v>3.0</v>
       </c>
-      <c r="D224" s="2">
+      <c r="D224" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2">
+      <c r="A225" s="3">
         <v>60.0</v>
       </c>
-      <c r="B225" s="2">
+      <c r="B225" s="3">
         <v>59.0</v>
       </c>
-      <c r="C225" s="2">
+      <c r="C225" s="3">
         <v>17.0</v>
       </c>
-      <c r="D225" s="2">
+      <c r="D225" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="2">
+      <c r="A226" s="3">
         <v>60.0</v>
       </c>
-      <c r="B226" s="2">
+      <c r="B226" s="3">
         <v>65.0</v>
       </c>
-      <c r="C226" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D226" s="2">
+      <c r="C226" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D226" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="2">
+      <c r="A227" s="3">
         <v>60.0</v>
       </c>
-      <c r="B227" s="2">
+      <c r="B227" s="3">
         <v>61.0</v>
       </c>
-      <c r="C227" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D227" s="2">
+      <c r="C227" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D227" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="2">
+      <c r="A228" s="3">
         <v>60.0</v>
       </c>
-      <c r="B228" s="2">
+      <c r="B228" s="3">
         <v>67.0</v>
       </c>
-      <c r="C228" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D228" s="2">
+      <c r="C228" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D228" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="2">
+      <c r="A229" s="3">
         <v>60.0</v>
       </c>
-      <c r="B229" s="2">
+      <c r="B229" s="3">
         <v>61.0</v>
       </c>
-      <c r="C229" s="2">
+      <c r="C229" s="3">
         <v>25.0</v>
       </c>
-      <c r="D229" s="2">
+      <c r="D229" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2">
+      <c r="A230" s="3">
         <v>60.0</v>
       </c>
-      <c r="B230" s="2">
+      <c r="B230" s="3">
         <v>64.0</v>
       </c>
-      <c r="C230" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D230" s="2">
+      <c r="C230" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D230" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="2">
+      <c r="A231" s="3">
         <v>61.0</v>
       </c>
-      <c r="B231" s="2">
+      <c r="B231" s="3">
         <v>62.0</v>
       </c>
-      <c r="C231" s="2">
+      <c r="C231" s="3">
         <v>5.0</v>
       </c>
-      <c r="D231" s="2">
+      <c r="D231" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="2">
+      <c r="A232" s="3">
         <v>61.0</v>
       </c>
-      <c r="B232" s="2">
+      <c r="B232" s="3">
         <v>65.0</v>
       </c>
-      <c r="C232" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D232" s="2">
+      <c r="C232" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D232" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2">
+      <c r="A233" s="3">
         <v>61.0</v>
       </c>
-      <c r="B233" s="2">
+      <c r="B233" s="3">
         <v>68.0</v>
       </c>
-      <c r="C233" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D233" s="2">
+      <c r="C233" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D233" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2">
+      <c r="A234" s="3">
         <v>61.0</v>
       </c>
-      <c r="B234" s="2">
+      <c r="B234" s="3">
         <v>59.0</v>
       </c>
-      <c r="C234" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D234" s="2">
+      <c r="C234" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D234" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2">
+      <c r="A235" s="3">
         <v>61.0</v>
       </c>
-      <c r="B235" s="2">
+      <c r="B235" s="3">
         <v>59.0</v>
       </c>
-      <c r="C235" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D235" s="2">
+      <c r="C235" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D235" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2">
+      <c r="A236" s="3">
         <v>61.0</v>
       </c>
-      <c r="B236" s="2">
+      <c r="B236" s="3">
         <v>64.0</v>
       </c>
-      <c r="C236" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D236" s="2">
+      <c r="C236" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D236" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2">
+      <c r="A237" s="3">
         <v>61.0</v>
       </c>
-      <c r="B237" s="2">
+      <c r="B237" s="3">
         <v>65.0</v>
       </c>
-      <c r="C237" s="2">
+      <c r="C237" s="3">
         <v>8.0</v>
       </c>
-      <c r="D237" s="2">
+      <c r="D237" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="2">
+      <c r="A238" s="3">
         <v>61.0</v>
       </c>
-      <c r="B238" s="2">
+      <c r="B238" s="3">
         <v>68.0</v>
       </c>
-      <c r="C238" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D238" s="2">
+      <c r="C238" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D238" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="2">
+      <c r="A239" s="3">
         <v>61.0</v>
       </c>
-      <c r="B239" s="2">
+      <c r="B239" s="3">
         <v>59.0</v>
       </c>
-      <c r="C239" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D239" s="2">
+      <c r="C239" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D239" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="2">
+      <c r="A240" s="3">
         <v>62.0</v>
       </c>
-      <c r="B240" s="2">
+      <c r="B240" s="3">
         <v>59.0</v>
       </c>
-      <c r="C240" s="2">
+      <c r="C240" s="3">
         <v>13.0</v>
       </c>
-      <c r="D240" s="2">
+      <c r="D240" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="2">
+      <c r="A241" s="3">
         <v>62.0</v>
       </c>
-      <c r="B241" s="2">
+      <c r="B241" s="3">
         <v>58.0</v>
       </c>
-      <c r="C241" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D241" s="2">
+      <c r="C241" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D241" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="2">
+      <c r="A242" s="3">
         <v>62.0</v>
       </c>
-      <c r="B242" s="2">
+      <c r="B242" s="3">
         <v>65.0</v>
       </c>
-      <c r="C242" s="2">
+      <c r="C242" s="3">
         <v>19.0</v>
       </c>
-      <c r="D242" s="2">
+      <c r="D242" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="2">
+      <c r="A243" s="3">
         <v>62.0</v>
       </c>
-      <c r="B243" s="2">
+      <c r="B243" s="3">
         <v>62.0</v>
       </c>
-      <c r="C243" s="2">
+      <c r="C243" s="3">
         <v>6.0</v>
       </c>
-      <c r="D243" s="2">
+      <c r="D243" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="2">
+      <c r="A244" s="3">
         <v>62.0</v>
       </c>
-      <c r="B244" s="2">
+      <c r="B244" s="3">
         <v>66.0</v>
       </c>
-      <c r="C244" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D244" s="2">
+      <c r="C244" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D244" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="2">
+      <c r="A245" s="3">
         <v>62.0</v>
       </c>
-      <c r="B245" s="2">
+      <c r="B245" s="3">
         <v>66.0</v>
       </c>
-      <c r="C245" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D245" s="2">
+      <c r="C245" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D245" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="2">
+      <c r="A246" s="3">
         <v>62.0</v>
       </c>
-      <c r="B246" s="2">
+      <c r="B246" s="3">
         <v>58.0</v>
       </c>
-      <c r="C246" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D246" s="2">
+      <c r="C246" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D246" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="2">
+      <c r="A247" s="3">
         <v>63.0</v>
       </c>
-      <c r="B247" s="2">
+      <c r="B247" s="3">
         <v>60.0</v>
       </c>
-      <c r="C247" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D247" s="2">
+      <c r="C247" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D247" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="2">
+      <c r="A248" s="3">
         <v>63.0</v>
       </c>
-      <c r="B248" s="2">
+      <c r="B248" s="3">
         <v>61.0</v>
       </c>
-      <c r="C248" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D248" s="2">
+      <c r="C248" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D248" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="2">
+      <c r="A249" s="3">
         <v>63.0</v>
       </c>
-      <c r="B249" s="2">
+      <c r="B249" s="3">
         <v>62.0</v>
       </c>
-      <c r="C249" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D249" s="2">
+      <c r="C249" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D249" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="2">
+      <c r="A250" s="3">
         <v>63.0</v>
       </c>
-      <c r="B250" s="2">
+      <c r="B250" s="3">
         <v>63.0</v>
       </c>
-      <c r="C250" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D250" s="2">
+      <c r="C250" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D250" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="2">
+      <c r="A251" s="3">
         <v>63.0</v>
       </c>
-      <c r="B251" s="2">
+      <c r="B251" s="3">
         <v>63.0</v>
       </c>
-      <c r="C251" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D251" s="2">
+      <c r="C251" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D251" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="2">
+      <c r="A252" s="3">
         <v>63.0</v>
       </c>
-      <c r="B252" s="2">
+      <c r="B252" s="3">
         <v>66.0</v>
       </c>
-      <c r="C252" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D252" s="2">
+      <c r="C252" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D252" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="2">
+      <c r="A253" s="3">
         <v>63.0</v>
       </c>
-      <c r="B253" s="2">
+      <c r="B253" s="3">
         <v>61.0</v>
       </c>
-      <c r="C253" s="2">
+      <c r="C253" s="3">
         <v>9.0</v>
       </c>
-      <c r="D253" s="2">
+      <c r="D253" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="2">
+      <c r="A254" s="3">
         <v>63.0</v>
       </c>
-      <c r="B254" s="2">
+      <c r="B254" s="3">
         <v>61.0</v>
       </c>
-      <c r="C254" s="2">
+      <c r="C254" s="3">
         <v>28.0</v>
       </c>
-      <c r="D254" s="2">
+      <c r="D254" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="2">
+      <c r="A255" s="3">
         <v>64.0</v>
       </c>
-      <c r="B255" s="2">
+      <c r="B255" s="3">
         <v>58.0</v>
       </c>
-      <c r="C255" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D255" s="2">
+      <c r="C255" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D255" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="2">
+      <c r="A256" s="3">
         <v>64.0</v>
       </c>
-      <c r="B256" s="2">
+      <c r="B256" s="3">
         <v>65.0</v>
       </c>
-      <c r="C256" s="2">
+      <c r="C256" s="3">
         <v>22.0</v>
       </c>
-      <c r="D256" s="2">
+      <c r="D256" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="2">
+      <c r="A257" s="3">
         <v>64.0</v>
       </c>
-      <c r="B257" s="2">
+      <c r="B257" s="3">
         <v>66.0</v>
       </c>
-      <c r="C257" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D257" s="2">
+      <c r="C257" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D257" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="2">
+      <c r="A258" s="3">
         <v>64.0</v>
       </c>
-      <c r="B258" s="2">
+      <c r="B258" s="3">
         <v>61.0</v>
       </c>
-      <c r="C258" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D258" s="2">
+      <c r="C258" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D258" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="2">
+      <c r="A259" s="3">
         <v>64.0</v>
       </c>
-      <c r="B259" s="2">
+      <c r="B259" s="3">
         <v>68.0</v>
       </c>
-      <c r="C259" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D259" s="2">
+      <c r="C259" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D259" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="2">
+      <c r="A260" s="3">
         <v>65.0</v>
       </c>
-      <c r="B260" s="2">
+      <c r="B260" s="3">
         <v>58.0</v>
       </c>
-      <c r="C260" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D260" s="2">
+      <c r="C260" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D260" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="2">
+      <c r="A261" s="3">
         <v>65.0</v>
       </c>
-      <c r="B261" s="2">
+      <c r="B261" s="3">
         <v>61.0</v>
       </c>
-      <c r="C261" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D261" s="2">
+      <c r="C261" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D261" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="2">
+      <c r="A262" s="3">
         <v>65.0</v>
       </c>
-      <c r="B262" s="2">
+      <c r="B262" s="3">
         <v>62.0</v>
       </c>
-      <c r="C262" s="2">
+      <c r="C262" s="3">
         <v>22.0</v>
       </c>
-      <c r="D262" s="2">
+      <c r="D262" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="2">
+      <c r="A263" s="3">
         <v>65.0</v>
       </c>
-      <c r="B263" s="2">
+      <c r="B263" s="3">
         <v>66.0</v>
       </c>
-      <c r="C263" s="2">
+      <c r="C263" s="3">
         <v>15.0</v>
       </c>
-      <c r="D263" s="2">
+      <c r="D263" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="2">
+      <c r="A264" s="3">
         <v>65.0</v>
       </c>
-      <c r="B264" s="2">
+      <c r="B264" s="3">
         <v>58.0</v>
       </c>
-      <c r="C264" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D264" s="2">
+      <c r="C264" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D264" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="2">
+      <c r="A265" s="3">
         <v>65.0</v>
       </c>
-      <c r="B265" s="2">
+      <c r="B265" s="3">
         <v>64.0</v>
       </c>
-      <c r="C265" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D265" s="2">
+      <c r="C265" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D265" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="2">
+      <c r="A266" s="3">
         <v>65.0</v>
       </c>
-      <c r="B266" s="2">
+      <c r="B266" s="3">
         <v>67.0</v>
       </c>
-      <c r="C266" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D266" s="2">
+      <c r="C266" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D266" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="2">
+      <c r="A267" s="3">
         <v>65.0</v>
       </c>
-      <c r="B267" s="2">
+      <c r="B267" s="3">
         <v>59.0</v>
       </c>
-      <c r="C267" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D267" s="2">
+      <c r="C267" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D267" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="2">
+      <c r="A268" s="3">
         <v>65.0</v>
       </c>
-      <c r="B268" s="2">
+      <c r="B268" s="3">
         <v>64.0</v>
       </c>
-      <c r="C268" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D268" s="2">
+      <c r="C268" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D268" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="2">
+      <c r="A269" s="3">
         <v>65.0</v>
       </c>
-      <c r="B269" s="2">
+      <c r="B269" s="3">
         <v>67.0</v>
       </c>
-      <c r="C269" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D269" s="2">
+      <c r="C269" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D269" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="2">
+      <c r="A270" s="3">
         <v>66.0</v>
       </c>
-      <c r="B270" s="2">
+      <c r="B270" s="3">
         <v>58.0</v>
       </c>
-      <c r="C270" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D270" s="2">
+      <c r="C270" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D270" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="2">
+      <c r="A271" s="3">
         <v>66.0</v>
       </c>
-      <c r="B271" s="2">
+      <c r="B271" s="3">
         <v>61.0</v>
       </c>
-      <c r="C271" s="2">
+      <c r="C271" s="3">
         <v>13.0</v>
       </c>
-      <c r="D271" s="2">
+      <c r="D271" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="2">
+      <c r="A272" s="3">
         <v>66.0</v>
       </c>
-      <c r="B272" s="2">
+      <c r="B272" s="3">
         <v>58.0</v>
       </c>
-      <c r="C272" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D272" s="2">
+      <c r="C272" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D272" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="2">
+      <c r="A273" s="3">
         <v>66.0</v>
       </c>
-      <c r="B273" s="2">
+      <c r="B273" s="3">
         <v>58.0</v>
       </c>
-      <c r="C273" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D273" s="2">
+      <c r="C273" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D273" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="2">
+      <c r="A274" s="3">
         <v>66.0</v>
       </c>
-      <c r="B274" s="2">
+      <c r="B274" s="3">
         <v>68.0</v>
       </c>
-      <c r="C274" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D274" s="2">
+      <c r="C274" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D274" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="2">
+      <c r="A275" s="3">
         <v>67.0</v>
       </c>
-      <c r="B275" s="2">
+      <c r="B275" s="3">
         <v>64.0</v>
       </c>
-      <c r="C275" s="2">
+      <c r="C275" s="3">
         <v>8.0</v>
       </c>
-      <c r="D275" s="2">
+      <c r="D275" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="2">
+      <c r="A276" s="3">
         <v>67.0</v>
       </c>
-      <c r="B276" s="2">
+      <c r="B276" s="3">
         <v>63.0</v>
       </c>
-      <c r="C276" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D276" s="2">
+      <c r="C276" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D276" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="2">
+      <c r="A277" s="3">
         <v>67.0</v>
       </c>
-      <c r="B277" s="2">
+      <c r="B277" s="3">
         <v>66.0</v>
       </c>
-      <c r="C277" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D277" s="2">
+      <c r="C277" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D277" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="2">
+      <c r="A278" s="3">
         <v>67.0</v>
       </c>
-      <c r="B278" s="2">
+      <c r="B278" s="3">
         <v>66.0</v>
       </c>
-      <c r="C278" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D278" s="2">
+      <c r="C278" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D278" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="2">
+      <c r="A279" s="3">
         <v>67.0</v>
       </c>
-      <c r="B279" s="2">
+      <c r="B279" s="3">
         <v>61.0</v>
       </c>
-      <c r="C279" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D279" s="2">
+      <c r="C279" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D279" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="2">
+      <c r="A280" s="3">
         <v>67.0</v>
       </c>
-      <c r="B280" s="2">
+      <c r="B280" s="3">
         <v>65.0</v>
       </c>
-      <c r="C280" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D280" s="2">
+      <c r="C280" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D280" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="2">
+      <c r="A281" s="3">
         <v>68.0</v>
       </c>
-      <c r="B281" s="2">
+      <c r="B281" s="3">
         <v>67.0</v>
       </c>
-      <c r="C281" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D281" s="2">
+      <c r="C281" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D281" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="2">
+      <c r="A282" s="3">
         <v>68.0</v>
       </c>
-      <c r="B282" s="2">
+      <c r="B282" s="3">
         <v>68.0</v>
       </c>
-      <c r="C282" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D282" s="2">
+      <c r="C282" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D282" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="2">
+      <c r="A283" s="3">
         <v>69.0</v>
       </c>
-      <c r="B283" s="2">
+      <c r="B283" s="3">
         <v>67.0</v>
       </c>
-      <c r="C283" s="2">
+      <c r="C283" s="3">
         <v>8.0</v>
       </c>
-      <c r="D283" s="2">
+      <c r="D283" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="2">
+      <c r="A284" s="3">
         <v>69.0</v>
       </c>
-      <c r="B284" s="2">
+      <c r="B284" s="3">
         <v>60.0</v>
       </c>
-      <c r="C284" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D284" s="2">
+      <c r="C284" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D284" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="2">
+      <c r="A285" s="3">
         <v>69.0</v>
       </c>
-      <c r="B285" s="2">
+      <c r="B285" s="3">
         <v>65.0</v>
       </c>
-      <c r="C285" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D285" s="2">
+      <c r="C285" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D285" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="2">
+      <c r="A286" s="3">
         <v>69.0</v>
       </c>
-      <c r="B286" s="2">
+      <c r="B286" s="3">
         <v>66.0</v>
       </c>
-      <c r="C286" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D286" s="2">
+      <c r="C286" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D286" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="2">
+      <c r="A287" s="3">
         <v>70.0</v>
       </c>
-      <c r="B287" s="2">
+      <c r="B287" s="3">
         <v>58.0</v>
       </c>
-      <c r="C287" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D287" s="2">
+      <c r="C287" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D287" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="2">
+      <c r="A288" s="3">
         <v>70.0</v>
       </c>
-      <c r="B288" s="2">
+      <c r="B288" s="3">
         <v>58.0</v>
       </c>
-      <c r="C288" s="2">
+      <c r="C288" s="3">
         <v>4.0</v>
       </c>
-      <c r="D288" s="2">
+      <c r="D288" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="2">
+      <c r="A289" s="3">
         <v>70.0</v>
       </c>
-      <c r="B289" s="2">
+      <c r="B289" s="3">
         <v>66.0</v>
       </c>
-      <c r="C289" s="2">
+      <c r="C289" s="3">
         <v>14.0</v>
       </c>
-      <c r="D289" s="2">
+      <c r="D289" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="2">
+      <c r="A290" s="3">
         <v>70.0</v>
       </c>
-      <c r="B290" s="2">
+      <c r="B290" s="3">
         <v>67.0</v>
       </c>
-      <c r="C290" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D290" s="2">
+      <c r="C290" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D290" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="2">
+      <c r="A291" s="3">
         <v>70.0</v>
       </c>
-      <c r="B291" s="2">
+      <c r="B291" s="3">
         <v>68.0</v>
       </c>
-      <c r="C291" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D291" s="2">
+      <c r="C291" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D291" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="2">
+      <c r="A292" s="3">
         <v>70.0</v>
       </c>
-      <c r="B292" s="2">
+      <c r="B292" s="3">
         <v>59.0</v>
       </c>
-      <c r="C292" s="2">
+      <c r="C292" s="3">
         <v>8.0</v>
       </c>
-      <c r="D292" s="2">
+      <c r="D292" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="2">
+      <c r="A293" s="3">
         <v>70.0</v>
       </c>
-      <c r="B293" s="2">
+      <c r="B293" s="3">
         <v>63.0</v>
       </c>
-      <c r="C293" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D293" s="2">
+      <c r="C293" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D293" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="2">
+      <c r="A294" s="3">
         <v>71.0</v>
       </c>
-      <c r="B294" s="2">
+      <c r="B294" s="3">
         <v>68.0</v>
       </c>
-      <c r="C294" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D294" s="2">
+      <c r="C294" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D294" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="2">
+      <c r="A295" s="3">
         <v>72.0</v>
       </c>
-      <c r="B295" s="2">
+      <c r="B295" s="3">
         <v>63.0</v>
       </c>
-      <c r="C295" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D295" s="2">
+      <c r="C295" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D295" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="2">
+      <c r="A296" s="3">
         <v>72.0</v>
       </c>
-      <c r="B296" s="2">
+      <c r="B296" s="3">
         <v>58.0</v>
       </c>
-      <c r="C296" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D296" s="2">
+      <c r="C296" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D296" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="2">
+      <c r="A297" s="3">
         <v>72.0</v>
       </c>
-      <c r="B297" s="2">
+      <c r="B297" s="3">
         <v>64.0</v>
       </c>
-      <c r="C297" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D297" s="2">
+      <c r="C297" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D297" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="2">
+      <c r="A298" s="3">
         <v>72.0</v>
       </c>
-      <c r="B298" s="2">
+      <c r="B298" s="3">
         <v>67.0</v>
       </c>
-      <c r="C298" s="2">
+      <c r="C298" s="3">
         <v>3.0</v>
       </c>
-      <c r="D298" s="2">
+      <c r="D298" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="2">
+      <c r="A299" s="3">
         <v>73.0</v>
       </c>
-      <c r="B299" s="2">
+      <c r="B299" s="3">
         <v>62.0</v>
       </c>
-      <c r="C299" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D299" s="2">
+      <c r="C299" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D299" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="2">
+      <c r="A300" s="3">
         <v>73.0</v>
       </c>
-      <c r="B300" s="2">
+      <c r="B300" s="3">
         <v>68.0</v>
       </c>
-      <c r="C300" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D300" s="2">
+      <c r="C300" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D300" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="2">
+      <c r="A301" s="3">
         <v>74.0</v>
       </c>
-      <c r="B301" s="2">
+      <c r="B301" s="3">
         <v>65.0</v>
       </c>
-      <c r="C301" s="2">
+      <c r="C301" s="3">
         <v>3.0</v>
       </c>
-      <c r="D301" s="2">
+      <c r="D301" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="2">
+      <c r="A302" s="3">
         <v>74.0</v>
       </c>
-      <c r="B302" s="2">
+      <c r="B302" s="3">
         <v>63.0</v>
       </c>
-      <c r="C302" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D302" s="2">
+      <c r="C302" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D302" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="2">
+      <c r="A303" s="3">
         <v>75.0</v>
       </c>
-      <c r="B303" s="2">
+      <c r="B303" s="3">
         <v>62.0</v>
       </c>
-      <c r="C303" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D303" s="2">
+      <c r="C303" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D303" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="2">
+      <c r="A304" s="3">
         <v>76.0</v>
       </c>
-      <c r="B304" s="2">
+      <c r="B304" s="3">
         <v>67.0</v>
       </c>
-      <c r="C304" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D304" s="2">
+      <c r="C304" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D304" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="2">
+      <c r="A305" s="3">
         <v>77.0</v>
       </c>
-      <c r="B305" s="2">
+      <c r="B305" s="3">
         <v>65.0</v>
       </c>
-      <c r="C305" s="2">
+      <c r="C305" s="3">
         <v>3.0</v>
       </c>
-      <c r="D305" s="2">
+      <c r="D305" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="2">
+      <c r="A306" s="3">
         <v>78.0</v>
       </c>
-      <c r="B306" s="2">
+      <c r="B306" s="3">
         <v>65.0</v>
       </c>
-      <c r="C306" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D306" s="2">
+      <c r="C306" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D306" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="2">
+      <c r="A307" s="3">
         <v>83.0</v>
       </c>
-      <c r="B307" s="2">
+      <c r="B307" s="3">
         <v>58.0</v>
       </c>
-      <c r="C307" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D307" s="2">
+      <c r="C307" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D307" s="3">
         <v>2.0</v>
       </c>
     </row>
@@ -4592,60 +4616,102 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="146.71"/>
+    <col customWidth="1" min="1" max="1" width="45.57"/>
+    <col customWidth="1" min="2" max="2" width="48.29"/>
+    <col customWidth="1" min="3" max="3" width="48.0"/>
+    <col customWidth="1" min="4" max="4" width="46.14"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>24</v>
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Inferential Statistics- Final Project(Udacity).xlsx
+++ b/Inferential Statistics- Final Project(Udacity).xlsx
@@ -6,6 +6,10 @@
     <sheet state="visible" name="Introduction" sheetId="1" r:id="rId3"/>
     <sheet state="visible" name="Dataset" sheetId="2" r:id="rId4"/>
     <sheet state="visible" name="Research Question &amp; Hypothesis" sheetId="3" r:id="rId5"/>
+    <sheet state="visible" name="ExperimentalDesignResearch Ques" sheetId="4" r:id="rId6"/>
+    <sheet state="visible" name="ResultsResearch Question &amp; Hypo" sheetId="5" r:id="rId7"/>
+    <sheet state="visible" name="Sheet12" sheetId="6" r:id="rId8"/>
+    <sheet state="visible" name="Sheet13" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,48 +17,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
   <si>
     <t>Description</t>
   </si>
   <si>
+    <t>Specific Question</t>
+  </si>
+  <si>
+    <t>Possible Lurking Variables</t>
+  </si>
+  <si>
+    <t>Hypothesis</t>
+  </si>
+  <si>
+    <t>Prediction</t>
+  </si>
+  <si>
+    <t>Age of patient at time of operation</t>
+  </si>
+  <si>
     <t>Introduction and Description:</t>
   </si>
   <si>
-    <t>Age of patient at time of operation</t>
-  </si>
-  <si>
-    <t>Specific Question</t>
-  </si>
-  <si>
-    <t>Possible Lurking Variables</t>
-  </si>
-  <si>
-    <t>Hypothesis</t>
-  </si>
-  <si>
-    <t>Releationship between age of patient at the time of operation and number of positive axillary nodes detected</t>
-  </si>
-  <si>
-    <t>Can we say that a specific age group have chances of getting higher/lower number of positive axillary nodes detected? Is there any trend?</t>
-  </si>
-  <si>
-    <t>Think in detail later.</t>
-  </si>
-  <si>
-    <t>H0: There is no relationship between age group and the number of postive axillary nodes detected.</t>
-  </si>
-  <si>
     <t>Importance of analyzing and understanding the results:</t>
   </si>
   <si>
     <t>Things to know:</t>
-  </si>
-  <si>
-    <t>Patient's year of operation</t>
-  </si>
-  <si>
-    <t>Number of positive axillary nodes detected</t>
   </si>
   <si>
     <t>The dataset contains cases from a study that was conducted between
@@ -63,6 +52,12 @@
    cancer.</t>
   </si>
   <si>
+    <t>Patient's year of operation</t>
+  </si>
+  <si>
+    <t>Number of positive axillary nodes detected</t>
+  </si>
+  <si>
     <t>Survival status</t>
   </si>
   <si>
@@ -70,9 +65,6 @@
   </si>
   <si>
     <t>Positive axillary nodes: A positive axillary lymph node is a lymph node in the area of the armpit (axilla) to which cancer has spread.</t>
-  </si>
-  <si>
-    <t>Relationship between age of patient at the time of operation and survival status post operation</t>
   </si>
   <si>
     <t>Number of Instances: 306</t>
@@ -114,35 +106,176 @@
     <t>Many questions like above can be answered by analyzing the given dataset, which can be very helpful to understand the behaviour and pattern between the disease and the concerned patients. Having these answers the doctors/government can proceed in a way to tackle the situation more effectively.</t>
   </si>
   <si>
+    <t>Pattern of age of pateint at the time of operation, to see the trend on which age the disease often affects</t>
+  </si>
+  <si>
+    <t>What are the descriptive statistics for the age of pateints at the time of operation?</t>
+  </si>
+  <si>
+    <t>There might be lesser number of samples for higher age.</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Pattern of year of treatment, to see the trend</t>
+  </si>
+  <si>
+    <t>What are the descriptive statistics for the patients year of operation?</t>
+  </si>
+  <si>
+    <t>Pattern of number of positive axillary detected at the time of operation, to see the trend</t>
+  </si>
+  <si>
+    <t>What are the descriptive statistics for the number of positive axillary nodes detected?</t>
+  </si>
+  <si>
+    <t>Releationship between age of patient at the time of operation and number of positive axillary nodes detected</t>
+  </si>
+  <si>
+    <t>Can we say that a specific age group have chances of getting higher/lower number of positive axillary nodes detected? Is there any trend?</t>
+  </si>
+  <si>
+    <t>There might be lesser number of samples for higher age group as few people only live that long.</t>
+  </si>
+  <si>
+    <t>H0: Both the age groups (30-47 and 48-65) will have around same number of positive axillary nodes detected.
+UA=UB
+HA: The groups will have significantly different number of postive axillary nodes detected.
+UA&lt;&gt;UB</t>
+  </si>
+  <si>
+    <t>I support the alternative hypothesis here.</t>
+  </si>
+  <si>
+    <t>Relationship between age of patient at the time of operation and survival status post operation</t>
+  </si>
+  <si>
+    <t>Can we say that the treatment affects different age groups differently?</t>
+  </si>
+  <si>
     <t>Change in survival status of patients with the year in which operation is performed</t>
   </si>
   <si>
+    <t>Can we say that the treatment has become better/worse with time in delivering positive results?</t>
+  </si>
+  <si>
     <t>Relationship between number of positive axillary nodes detected and survival status</t>
   </si>
   <si>
-    <t>Relationship between age of patient at the time of operation and year of operation, to know if the patients are becoming more aware to get diagonsed at an earlier stage with time or may be to see if with time the disease is changing the age group to attack upon, if yes which direction</t>
-  </si>
-  <si>
-    <t>Change in number of postive axillary nodes detected with the year in which operation is performed, to know if the disease is becoming more or less severe with time.</t>
-  </si>
-  <si>
-    <t>Pattern of age of pateint at the time of operation, to see the trend on which age the disease often affects</t>
-  </si>
-  <si>
-    <t>Pattern of year of treatment, to see the trend</t>
-  </si>
-  <si>
-    <t>Pattern of number of positive axillary detected at the time of operation, to see the trend</t>
-  </si>
-  <si>
-    <t>Question 2, 3 and 4 can be clubbed to work as multiple regression, to create a single equation</t>
+    <t>Is there any relationship between number of positive axillary nodes detected and survival rate?</t>
+  </si>
+  <si>
+    <t>Relationship between age of patient at the time of operation and year of operation, to know if the patients are becoming more aware to get diagonsed at an earlier stage with time or may be to see if with time the disease is changing the age group to attack upon, if yes which direction. The latter question makes more sense here.</t>
+  </si>
+  <si>
+    <t>Is there change in the affected age group with time?</t>
+  </si>
+  <si>
+    <t>Change in number of positive axillary nodes detected with the year in which operation is performed, to know if the disease is becoming more or less severe with time. Or if we are becoming more able to detect the positive axillary nodes with time. The latter one is quite an unlikely question though.</t>
+  </si>
+  <si>
+    <t>Is the disease becmoning more severe with time?</t>
+  </si>
+  <si>
+    <t>Question 7, 8 and 9 have to be done with CHI^2 test becuase the attribute status is of nominal type.</t>
+  </si>
+  <si>
+    <t>All questions having time(year of operation) as variable can be made to undergone ANOVA or t tests in longitudinal category</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>The above data gives descriptive statistics about the age of patients being diagonsed with Breast Cancer.</t>
+  </si>
+  <si>
+    <t>The distribution is very normal and have central tendency as 52. So we can say the average age of a person undergoing a breast cancer operation is 52 years.
+Thus, it can be indirectly inferred that the age group 41-63 is most prone to breast cancer.</t>
+  </si>
+  <si>
+    <t>The above data gives descriptive statistics about the year of patients being diagonsed with Breast Cancer.</t>
+  </si>
+  <si>
+    <t>There is around 3 times decrease in the count in the year 1968 as compared to that of 1958.
+Also the distribution is quite skewed and its very difficult to deduce any specific information from it.</t>
+  </si>
+  <si>
+    <t>30-47</t>
+  </si>
+  <si>
+    <t>48-65</t>
+  </si>
+  <si>
+    <t>66-83</t>
+  </si>
+  <si>
+    <t>Can we say that a specific age group have chances of getting higher/lower number of positive axillary nodes detected?
+Is there any trend?</t>
+  </si>
+  <si>
+    <t>The above data gives descriptive statistics about the number of positive axillary nodes detetcted for pateints with Breast Cancer being diagonsed.</t>
+  </si>
+  <si>
+    <t>The distribution is highly positively skewed having mean, median and mode all fell at extreme left end.
+This means, in general pateints having Breast Cancer being diagoned have around 0 to 4 number of positive axillary nodes.</t>
+  </si>
+  <si>
+    <t>Above we can see the graph between age of patients and the number of positive axillary nodes detected during treatment.
+We have divided the given data into three age groups in the left namely 30 to 47, 48 to 65 and 66 to 83.
+We want to know if any of these groups have significantly different number of positive axillary nodes found than any other group.</t>
+  </si>
+  <si>
+    <t>Let us see how the graphs looks like for all the three age groups we have created:</t>
+  </si>
+  <si>
+    <t>Let's see if the given data satisfies the assumptions for One-Way ANOVA:</t>
+  </si>
+  <si>
+    <t>* First of all, let us check the normality of the age groups:</t>
+  </si>
+  <si>
+    <t>Ranges from 0 to 52, with most values at the low end. The median is 1.</t>
+  </si>
+  <si>
+    <t>Ranges from 0 to 46, with most values at the low end. The median is 1.</t>
+  </si>
+  <si>
+    <t>Ranges from 0 to 14.</t>
+  </si>
+  <si>
+    <t>As clear from the above distributions that the samples are quite assymetrical, but still we can ignore the normality asumption as the size of the samples are quite large in each of the above case. (n&gt;30)</t>
+  </si>
+  <si>
+    <t>* Let us move to check the homogeneity of variances:</t>
+  </si>
+  <si>
+    <t>The variance of the third group is quite different. Moreover, we can't ignore this as the sample sizes of all the groups are significantly different.</t>
+  </si>
+  <si>
+    <t>This means these groups of data are not suitable for running ANOVA.</t>
+  </si>
+  <si>
+    <t>Let's just consider the first two groups. As the variance is also not significanlty different between these two groups, these becomes a good subject for t-test.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -152,13 +285,28 @@
       <b/>
     </font>
     <font/>
+    <font>
+      <color rgb="FF616161"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF616161"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -172,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -188,12 +336,424 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr>
+                <a:latin typeface="Roboto"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Number of positive axillary nodes detected vs. Age of patient at time of operation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dataset!$C$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="3366CC"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Dataset!$A$2:$A$307</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Dataset!$C$2:$C$307</c:f>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1884226058"/>
+        <c:axId val="1973772077"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1884226058"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="83.0"/>
+          <c:min val="30.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr i="0">
+                    <a:solidFill>
+                      <a:srgbClr val="757575"/>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Age of patient at time of operation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr>
+                <a:latin typeface="Roboto"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1973772077"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1973772077"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="52.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr i="0" sz="1200">
+                    <a:solidFill>
+                      <a:srgbClr val="757575"/>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Number of positive axillary nodes detected</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr>
+                <a:latin typeface="Roboto"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1884226058"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr>
+              <a:latin typeface="Roboto"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr>
+                <a:latin typeface="Roboto"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>30-47, 48-65 and 66-83</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ExperimentalDesignResearch Ques'!$A$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng" w="25400">
+              <a:solidFill>
+                <a:srgbClr val="3366CC"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ExperimentalDesignResearch Ques'!$A$2:$A$162</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ExperimentalDesignResearch Ques'!$B$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng" w="25400">
+              <a:solidFill>
+                <a:srgbClr val="DC3912"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ExperimentalDesignResearch Ques'!$B$2:$B$162</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ExperimentalDesignResearch Ques'!$C$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng" w="25400">
+              <a:solidFill>
+                <a:srgbClr val="FF9900"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ExperimentalDesignResearch Ques'!$C$2:$C$162</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="896613646"/>
+        <c:axId val="1102335311"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="896613646"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr>
+                <a:latin typeface="Roboto"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1102335311"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1102335311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="52.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr>
+                <a:latin typeface="Roboto"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="896613646"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr>
+              <a:latin typeface="Roboto"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+  </c:chart>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -205,6 +765,83 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -222,67 +859,67 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -308,16 +945,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2">
@@ -333,6 +970,7 @@
       <c r="D2" s="3">
         <v>1.0</v>
       </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="3">
@@ -347,6 +985,7 @@
       <c r="D3" s="3">
         <v>1.0</v>
       </c>
+      <c r="E3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="3">
@@ -361,6 +1000,7 @@
       <c r="D4" s="3">
         <v>1.0</v>
       </c>
+      <c r="E4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="3">
@@ -375,6 +1015,7 @@
       <c r="D5" s="3">
         <v>1.0</v>
       </c>
+      <c r="E5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="3">
@@ -389,6 +1030,7 @@
       <c r="D6" s="3">
         <v>1.0</v>
       </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="3">
@@ -403,6 +1045,7 @@
       <c r="D7" s="3">
         <v>1.0</v>
       </c>
+      <c r="E7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="3">
@@ -4616,10 +5259,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="45.57"/>
-    <col customWidth="1" min="2" max="2" width="48.29"/>
-    <col customWidth="1" min="3" max="3" width="48.0"/>
-    <col customWidth="1" min="4" max="4" width="46.14"/>
+    <col customWidth="1" min="1" max="1" width="37.57"/>
+    <col customWidth="1" min="2" max="2" width="39.43"/>
+    <col customWidth="1" min="3" max="3" width="38.71"/>
+    <col customWidth="1" min="4" max="4" width="35.57"/>
+    <col customWidth="1" min="5" max="5" width="34.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4627,94 +5271,1770 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="4"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B19" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B22" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3">
+        <v>21.0</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B29" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B31" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B32" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B33" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="C33" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B37" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B39" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C39" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B40" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B42" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B44" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3">
+        <v>23.0</v>
+      </c>
+      <c r="B45" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B51" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B53" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B54" s="3">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B55" s="3">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B56" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57">
+        <f>AVERAGE(A2:A162)</f>
+        <v>4.38317757</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H57">
+        <f>AVERAGE(B2:B162)</f>
+        <v>4.291925466</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L57">
+        <f>AVERAGE(C2:C162)</f>
+        <v>1.894736842</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58">
+        <f>MEDIAN(A1:A162)</f>
+        <v>1</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H58">
+        <f>MEDIAN(B1:B162)</f>
+        <v>1</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L58">
+        <f>MEDIAN(C1:C162)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B59" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59">
+        <f>MODE(A1:A162)</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H59">
+        <f>MODE(B1:B162)</f>
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L59">
+        <f>MODE(C1:C162)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B60" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60">
+        <f>STDEV(A1:A162)</f>
+        <v>7.797731721</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H60">
+        <f>STDEV(B1:B162)</f>
+        <v>7.351564248</v>
+      </c>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L60">
+        <f>STDEV(C1:C162)</f>
+        <v>3.585175737</v>
+      </c>
+      <c r="M60" s="7"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="B61" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B62" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B63" s="3">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3">
+        <v>52.0</v>
+      </c>
+      <c r="B64" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B65" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B66" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B67" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="B68" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B69" s="3">
+        <v>46.0</v>
+      </c>
+      <c r="E69" s="9"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B71" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B72" s="3">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B75" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B76" s="3">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B78" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B79" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B80" s="3">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B82" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B83" s="3">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B85" s="3">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B86" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="B87" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B88" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B89" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B92" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B93" s="3">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="B94" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B95" s="3">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B96" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3">
+        <v>23.0</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B100" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B101" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B102" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B103" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="B104" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="B105" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B106" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B107" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B108" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" s="3">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" s="3">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" s="3">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" s="3">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" s="3">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" s="3">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" s="3">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" s="3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" s="3">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" s="3">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" s="3">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" s="3">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" s="3">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="E45:J45"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="E64:J64"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="E62:J62"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="8" max="8" width="21.14"/>
+    <col customWidth="1" min="9" max="9" width="21.71"/>
+    <col customWidth="1" min="10" max="10" width="21.0"/>
+    <col customWidth="1" min="11" max="11" width="20.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="H3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="H4">
+        <v>52.45751633986928</v>
+      </c>
+      <c r="I4">
+        <v>52.0</v>
+      </c>
+      <c r="J4">
+        <v>52.0</v>
+      </c>
+      <c r="K4">
+        <v>10.803452349303296</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="H6" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="H8" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H8:K8"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="8" max="8" width="21.57"/>
+    <col customWidth="1" min="9" max="9" width="20.71"/>
+    <col customWidth="1" min="10" max="10" width="20.43"/>
+    <col customWidth="1" min="11" max="11" width="21.29"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="H3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="H4">
+        <v>62.85294117647059</v>
+      </c>
+      <c r="I4">
+        <v>63.0</v>
+      </c>
+      <c r="J4">
+        <v>58.0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>3.249404663</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="H6" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="H8" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H8:K8"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="8" max="8" width="21.14"/>
+    <col customWidth="1" min="9" max="9" width="21.0"/>
+    <col customWidth="1" min="10" max="10" width="20.57"/>
+    <col customWidth="1" min="11" max="11" width="20.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="H3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="H4">
+        <v>4.026143790849673</v>
+      </c>
+      <c r="I4">
+        <v>1.0</v>
+      </c>
+      <c r="J4">
+        <v>0.0</v>
+      </c>
+      <c r="K4">
+        <v>7.189653506248556</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="H6" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="H8" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H8:K8"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>